--- a/Manual validations.xlsx
+++ b/Manual validations.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Module Name</t>
   </si>
@@ -69,12 +69,6 @@
     <t>check all the links working as expected</t>
   </si>
   <si>
-    <t xml:space="preserve">Able to add stocks </t>
-  </si>
-  <si>
-    <t>Graph and chart displayed</t>
-  </si>
-  <si>
     <t>Dashboard</t>
   </si>
   <si>
@@ -99,9 +93,6 @@
     <t>Watchlist and drafts</t>
   </si>
   <si>
-    <t>Creating and editing watchlist in watchlist page</t>
-  </si>
-  <si>
     <t>Validating saved watchlist in watchlist page</t>
   </si>
   <si>
@@ -115,25 +106,86 @@
   </si>
   <si>
     <t>Edit and add button validations</t>
+  </si>
+  <si>
+    <t>Login/Registration</t>
+  </si>
+  <si>
+    <t>Vaildate the page is displayed</t>
+  </si>
+  <si>
+    <t>Validate user is able to enter credentials in proper format</t>
+  </si>
+  <si>
+    <t>validate error message displayed for invalid credentials</t>
+  </si>
+  <si>
+    <t>validate form for new user</t>
+  </si>
+  <si>
+    <t>validate user is able to register successfully</t>
+  </si>
+  <si>
+    <t>validate dashboard gets loaded for successul login</t>
+  </si>
+  <si>
+    <t>Able to add stocks or not</t>
+  </si>
+  <si>
+    <t>validate the link in the footer section is displayed and working as expected like help and blog</t>
+  </si>
+  <si>
+    <t>Graph and chart displayedas expected</t>
+  </si>
+  <si>
+    <t>validate if overview, investment insights ,helpful links,blog updates and news for you smallcases is in appropriate position</t>
+  </si>
+  <si>
+    <t>validate that user is getting Stocks with current price, weightage, shares and order type of all the 
+of that smallcase in review order on invest More modal</t>
+  </si>
+  <si>
+    <t>Buy small case is disabled until clicked on confirm amount and also after clicking the button label changes</t>
+  </si>
+  <si>
+    <t>validates user gets confirmation message if it goes succesfully otherwise error if something goes wrong</t>
+  </si>
+  <si>
+    <t>after clicking on drafts of saved smallcase in watchlist page user should get the popup for confirmation page</t>
+  </si>
+  <si>
+    <t>watchlist shows top 100 stocks and user should be able to purchase from there.</t>
+  </si>
+  <si>
+    <t>validate header and footer is displayed in all the pages</t>
+  </si>
+  <si>
+    <t>Discover</t>
+  </si>
+  <si>
+    <t>validate discover page with explore and all smallcases link working as expected</t>
+  </si>
+  <si>
+    <t>validating after entering any symbol in search bar symbol is displayed and we are able to do transaction</t>
+  </si>
+  <si>
+    <t>validate if user clicks on all samllcases, filters tabs are displayed and user is able to filter them by applying specific filter.</t>
+  </si>
+  <si>
+    <t>Load more smallcase at the bottom is working as expected</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF202124"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -158,7 +210,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -491,127 +543,218 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75">
-      <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="B17" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="B18" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="B19" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="B20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="B37" t="s">
         <v>26</v>
       </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="B23" t="s">
+      <c r="B39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="B24" t="s">
+    <row r="40" spans="1:2">
+      <c r="B40" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="B27" t="s">
-        <v>32</v>
+    <row r="41" spans="1:2">
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="B46" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
